--- a/biology/Histoire de la zoologie et de la botanique/Henry_Maurice_Drummond-Hay/Henry_Maurice_Drummond-Hay.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Maurice_Drummond-Hay/Henry_Maurice_Drummond-Hay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Maurice Drummond puis Drummond-Hay est un militaire et un ornithologue écossais, né le 7 juin 1814 en Écosse et mort le 3 janvier 1896.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est capitaine au 42e régiment de 1832 à 1851, commandant des fusiliers de Perthshire de 1854 à 1872. Il récolte et étudie les oiseaux durant ses voyages militaires dans l’est de la Méditerranée et dans les Caraïbes notamment. Il change son nom en Drummond-Hay en 1859.
 Il est le premier président de la British Ornithologists' Union de 1858 à 1867.
